--- a/SoftwareRequirements_project.xlsx
+++ b/SoftwareRequirements_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\serious\ปี3.1\friday\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\serious\ปี3.1\friday\project\Tram_tracking_draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC95988-1E10-483B-930D-E29DAC7AB714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8703D46-65BC-4521-9652-999BCBA48EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="3" r:id="rId1"/>
@@ -335,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -377,32 +377,6 @@
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
@@ -416,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -432,24 +406,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -789,9 +762,9 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="B3:E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -816,232 +789,232 @@
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="4">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="4">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="4">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="4">
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="4">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="4">
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="4">
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="4">
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="4">
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="4">
+      <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="4">
+      <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="5">
+      <c r="B14" s="13">
         <v>12</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="4">
+      <c r="B15" s="12">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="5">
+      <c r="B16" s="13">
         <v>14</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1171,7 +1144,7 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G20" sqref="G15:G20"/>
     </sheetView>
@@ -1231,7 +1204,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1251,7 +1224,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1271,7 +1244,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1291,7 +1264,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1311,7 +1284,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1331,7 +1304,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1351,7 +1324,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1369,7 +1342,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1387,7 +1360,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1407,7 +1380,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1425,7 +1398,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1445,7 +1418,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1465,7 +1438,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1485,7 +1458,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1499,11 +1472,11 @@
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1521,7 +1494,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1539,7 +1512,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="4" t="s">

--- a/SoftwareRequirements_project.xlsx
+++ b/SoftwareRequirements_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\serious\ปี3.1\friday\project\Tram_tracking_draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\serious\ปี3.1\friday\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8703D46-65BC-4521-9652-999BCBA48EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867F7BFB-85CF-4844-B211-C1D7509C7C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
   </bookViews>
@@ -335,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -380,6 +380,19 @@
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -413,11 +426,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -763,8 +776,8 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -789,16 +802,16 @@
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
@@ -1011,10 +1024,10 @@
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1146,7 +1159,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G15:G20"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/SoftwareRequirements_project.xlsx
+++ b/SoftwareRequirements_project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\serious\ปี3.1\friday\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\serious\ปี3.1\friday\project\Tram_tracking_draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867F7BFB-85CF-4844-B211-C1D7509C7C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F734A2-0FFE-437B-94BA-F2B2EA72FA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="3" r:id="rId1"/>
@@ -22,22 +22,29 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'User Story'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Requirements!$B$1:$G$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Requirements!$B$1:$G$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'User Story'!$B$1:$E$27</definedName>
     <definedName name="Type" localSheetId="1">'[1]Maintenance Work Order'!#REF!</definedName>
     <definedName name="Type">'[1]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>USER STORY ID</t>
   </si>
@@ -205,9 +212,6 @@
   </si>
   <si>
     <t>การอัพเดทข้อมูลของรถแทรม(เพิ่ม,ลบ,แก้ไข)</t>
-  </si>
-  <si>
-    <t>Dark mode</t>
   </si>
   <si>
     <t>การแจ้งเตื่อนการมาถึงของรถแทรม</t>
@@ -403,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -436,6 +440,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -775,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1155,11 +1162,11 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1210,18 +1217,18 @@
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="4">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4">
         <v>14</v>
@@ -1230,27 +1237,29 @@
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="5">
+      <c r="B4" s="14">
+        <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="4">
+      <c r="B5" s="14">
+        <f t="shared" ref="B5:B20" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1261,7 +1270,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="4">
         <v>4</v>
@@ -1270,7 +1279,8 @@
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="5">
+      <c r="B6" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1281,16 +1291,17 @@
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="4">
+      <c r="B7" s="14">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1301,16 +1312,17 @@
         <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="5">
+      <c r="B8" s="14">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1321,16 +1333,17 @@
         <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="4">
+      <c r="B9" s="14">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1341,14 +1354,15 @@
         <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="5">
+      <c r="B10" s="14">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1359,14 +1373,15 @@
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="4">
+      <c r="B11" s="14">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1377,248 +1392,243 @@
         <v>12</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="5">
+      <c r="B12" s="14">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="4">
+      <c r="B13" s="14">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="5">
+      <c r="B14" s="14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>53</v>
+      <c r="G14" s="4">
+        <v>17</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="4">
+      <c r="B15" s="14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="4">
-        <v>17</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="5">
+      <c r="B16" s="14">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="4">
+      <c r="B17" s="14">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="5">
+      <c r="B18" s="14">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="4">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="5">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="4">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1648,19 +1658,9 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup scale="81" fitToHeight="17" orientation="landscape" verticalDpi="0"/>
+  <pageSetup scale="81" fitToHeight="17" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SoftwareRequirements_project.xlsx
+++ b/SoftwareRequirements_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\serious\ปี3.1\friday\project\Tram_tracking_draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F734A2-0FFE-437B-94BA-F2B2EA72FA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A052659-6720-4817-982B-9538815BA9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>USER STORY ID</t>
   </si>
@@ -260,6 +262,15 @@
   </si>
   <si>
     <t>1,14,17</t>
+  </si>
+  <si>
+    <t>รถแทรม</t>
+  </si>
+  <si>
+    <t>ส่งข้อมูลตำแหน่ง GPS</t>
+  </si>
+  <si>
+    <t>นำข้อมูล GPS ไปประ</t>
   </si>
 </sst>
 </file>
@@ -447,7 +458,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,7 +491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,9 +793,9 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1004,9 +1015,15 @@
       <c r="B14" s="13">
         <v>12</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1164,7 +1181,7 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -1259,7 +1276,7 @@
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="14">
-        <f t="shared" ref="B5:B20" si="0">B4+1</f>
+        <f t="shared" ref="B5:B18" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">

--- a/SoftwareRequirements_project.xlsx
+++ b/SoftwareRequirements_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\serious\ปี3.1\friday\project\Tram_tracking_draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A052659-6720-4817-982B-9538815BA9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181B2C6-F4AE-4E2E-82B1-C62A3A04D3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
   </bookViews>

--- a/SoftwareRequirements_project.xlsx
+++ b/SoftwareRequirements_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frame\Documents\GitHub\Tram_tracking_draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\serious\ปี3.1\friday\project\Tram_tracking_draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC13A1CA-7C97-4EA3-916F-40AD2D21CEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169BA0E2-17A9-4BC4-9532-36787EBACC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B329004F-A1CA-7C41-8D94-B3324D72B281}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
   <si>
     <t>USER STORY ID</t>
   </si>
@@ -96,9 +96,6 @@
     <t>ทราบแผนที่การเดินรถของทุกสาย</t>
   </si>
   <si>
-    <t>ทราบตำแหน่งของป้ายรถแทรม</t>
-  </si>
-  <si>
     <t>ทราบว่ารถแทรมจะมาถึงอีกกี่นาที</t>
   </si>
   <si>
@@ -123,18 +120,6 @@
     <t>ผู้ดูแลระบบ</t>
   </si>
   <si>
-    <t>อัพเดทข้อมูลการเดินรถแทรม</t>
-  </si>
-  <si>
-    <t>แผนที้เดินรถแทรมเป็นไปตามปัจจุบัน</t>
-  </si>
-  <si>
-    <t>ปรับปรุงระบบเมื่อเกิดความผิดปกติ</t>
-  </si>
-  <si>
-    <t>ระบบดำเนินการเป็นปกติ</t>
-  </si>
-  <si>
     <t>ทราบวิธีการใช้แอป</t>
   </si>
   <si>
@@ -147,88 +132,16 @@
     <t>ผู้ดูแลได้ทำการปรับปรุง</t>
   </si>
   <si>
-    <t>ทราบว่ารถแทรมจะไปถึงปลายทางในกี่นาที</t>
-  </si>
-  <si>
     <t>จะได้เตรียมตัวลงรถ</t>
   </si>
   <si>
-    <t>รับตำแหน่งต้นทาง-ปลายทางเพื่อหาเส้นทางการเดินทาง</t>
-  </si>
-  <si>
-    <t>คำนวนเส้นทางการเดินทางจากต้นทางไปปลายทางที่กำหนด</t>
-  </si>
-  <si>
-    <t>ระบบหาป้ายรถแทรมที่ใกล้ที่สุดโดยใช้ GPS</t>
-  </si>
-  <si>
-    <t>ระบบคำนวนเวลาของรถแทรมโดยใช้ GPS</t>
-  </si>
-  <si>
-    <t>คู่มือการใช้แอป</t>
-  </si>
-  <si>
-    <t>แสดงช่องทางการติดต่อเพื่อรายงานปัญหา</t>
-  </si>
-  <si>
-    <t>การอัพเดทข้อมูลของรถแทรม(เพิ่ม,ลบ,แก้ไข)</t>
-  </si>
-  <si>
-    <t>การแจ้งเตื่อนการมาถึงของรถแทรม</t>
-  </si>
-  <si>
-    <t>ฐานข้อมูลของเส้นทางรถแทรมแต่ละสาย</t>
-  </si>
-  <si>
-    <t>ฐานข้อมูลของเวลาของการจอดรถแทรมในแต่ละป้าย</t>
-  </si>
-  <si>
     <t>Volatile</t>
   </si>
   <si>
     <t>Enduring</t>
   </si>
   <si>
-    <t>5,11</t>
-  </si>
-  <si>
-    <t>ดูแผนที่การเดินรถแทรมทั้งหมด พร้อมตารางเวลา และป้ายรถแทรม</t>
-  </si>
-  <si>
-    <t>1,6,14</t>
-  </si>
-  <si>
-    <t>ระบบดึงข้อมูลตำแหน่งจาก GPS</t>
-  </si>
-  <si>
-    <t>Platfrom ที่รองรับ(Android,IOS)</t>
-  </si>
-  <si>
-    <t>ระบบรองรับคนตาบอดสี</t>
-  </si>
-  <si>
-    <t>เครื่องGPS ที่ติดตั้งบนรถแทรม</t>
-  </si>
-  <si>
-    <t>เครื่อง Server</t>
-  </si>
-  <si>
-    <t>11,13,17</t>
-  </si>
-  <si>
-    <t>14,17</t>
-  </si>
-  <si>
-    <t>1,14,17</t>
-  </si>
-  <si>
-    <t>รถแทรม</t>
-  </si>
-  <si>
     <t>ส่งข้อมูลตำแหน่ง GPS</t>
-  </si>
-  <si>
-    <t>นำข้อมูล GPS ไปประ</t>
   </si>
   <si>
     <r>
@@ -272,6 +185,168 @@
       <t>&lt; ACHIEVE SOME GOAL &gt;</t>
     </r>
   </si>
+  <si>
+    <t>ทราบว่ารถแทรมจะไปถึงป้ายที่เลือก</t>
+  </si>
+  <si>
+    <t>ทราบตำแหน่งของป้ายรถแทรมที่ใกล้ที่สุด</t>
+  </si>
+  <si>
+    <t>คนขับรถแทรม</t>
+  </si>
+  <si>
+    <t>เพื่อใช้ในฟังก์ชันเกี่ยวกับตำแหน่งรถแทรม</t>
+  </si>
+  <si>
+    <t>เก็บเป็นประวัติการเดินรถ</t>
+  </si>
+  <si>
+    <t>บันทึกเวลาการเดินรถ</t>
+  </si>
+  <si>
+    <t>อัพเดทป้ายรถแทรมถัดไปที่จะถึง</t>
+  </si>
+  <si>
+    <t>ใช้ในการแสดงผลถึงรถแทรมที่จะถึงคันถัดไปของแต่ละป้าย</t>
+  </si>
+  <si>
+    <t>เข้าและออกงาน</t>
+  </si>
+  <si>
+    <t>บันทึกเวลางานของคนขับรถแทรม</t>
+  </si>
+  <si>
+    <t>ดูข้อมูลส่วนตัว</t>
+  </si>
+  <si>
+    <t>ทราบข้อมูลส่วนตัวของตน</t>
+  </si>
+  <si>
+    <t>แก้ไขข้อมูล</t>
+  </si>
+  <si>
+    <t>ได้ข้อมูลในระบบที่ถูกต้องและเป็นปัจจุบัน</t>
+  </si>
+  <si>
+    <t>เรียกดูข้อมูลในระบบ</t>
+  </si>
+  <si>
+    <t>ทราบข้อมูลต่างๆ ในระบบ</t>
+  </si>
+  <si>
+    <t>บันทึกเวลางานของผูดดูแลระบบรถแทรม</t>
+  </si>
+  <si>
+    <t>ทราบการทำงานใช้งานแอปฝั่งผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>เก็บประวัติการใช้งานของผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>ทราบประวัติการแก้ไขข้อมูลของฝั่งผู้ให้บริการ</t>
+  </si>
+  <si>
+    <t>เก็บเป็นประวัติการแก้ไขข้อมูล</t>
+  </si>
+  <si>
+    <t>ส่งตำแหน่งรถแทรมจาก GPS ของโทรศัพท์ Driver</t>
+  </si>
+  <si>
+    <t>ส่งตำแหน่งผู้ใช้จาก GPS ของโทรศัพท์ Driver</t>
+  </si>
+  <si>
+    <t>เข้าสู่ระบบของฝั่งผู้ให้บริการ</t>
+  </si>
+  <si>
+    <t>แสดงผลแผนที่ (รถแทรม, ป้ายรถแทรม, ตารางเวลา, ตำแหน่งผู้ใช้)</t>
+  </si>
+  <si>
+    <t>เลือกสายการเดินรถที่ดู</t>
+  </si>
+  <si>
+    <t>แสดงสายการเดินรถที่เลือกจากแผนที่</t>
+  </si>
+  <si>
+    <t>แสดงเวลาที่รถแทรมที่เลือกจะถึงผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>เลือกดูข้อมูลรถแทรม, ป้ายรถแทรม</t>
+  </si>
+  <si>
+    <t>แสดงรถแทรมแต่ละสายที่จะถึงใกล้ที่สุดของป้ายที่เลือก</t>
+  </si>
+  <si>
+    <t>กำหนดจุดเริ่มต้นและสิ้นสุดการเดินทางที่ต้องการ</t>
+  </si>
+  <si>
+    <t>ระบบคำนวนเส้นทาง</t>
+  </si>
+  <si>
+    <t>แสดงเส้นทางจากต้นทางไปปลายทาง</t>
+  </si>
+  <si>
+    <t>คำนวนป้ายรถแทรมที่ใกล้ที่สุดจากตัวผู้ใช้งาน</t>
+  </si>
+  <si>
+    <t>แสดงป้ายรถแทรมที่ใกล้ที่สุด</t>
+  </si>
+  <si>
+    <t>ระบบแบบสอบถาม</t>
+  </si>
+  <si>
+    <t>บันทึกการใช้งานผู้ใช้</t>
+  </si>
+  <si>
+    <t>บันทึกการเดินรถ 1 รอบ</t>
+  </si>
+  <si>
+    <t>ตั้งค่าสถานะของรถแทรม</t>
+  </si>
+  <si>
+    <t>บันทึกการแก้ไขของฝั่งผุ้ให้บริการ</t>
+  </si>
+  <si>
+    <t>ดูข้อมูลใน Database</t>
+  </si>
+  <si>
+    <t>แก้ไขข้อมูลใน Database</t>
+  </si>
+  <si>
+    <t>Log user database</t>
+  </si>
+  <si>
+    <t>Log service database</t>
+  </si>
+  <si>
+    <t>station database</t>
+  </si>
+  <si>
+    <t>tram database</t>
+  </si>
+  <si>
+    <t>one day database</t>
+  </si>
+  <si>
+    <t>feedback database</t>
+  </si>
+  <si>
+    <t>service user database</t>
+  </si>
+  <si>
+    <t>platformที่ใช้</t>
+  </si>
+  <si>
+    <t>เครื่อง server admin</t>
+  </si>
+  <si>
+    <t>google api</t>
+  </si>
+  <si>
+    <t>firebase</t>
+  </si>
+  <si>
+    <t>ระบบค้นหาตำแหน่งจากคำที่ค้นหา</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +356,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -517,6 +592,63 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,66 +658,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,7 +693,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -920,50 +995,50 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="29.09765625" customWidth="1"/>
-    <col min="4" max="5" width="50.796875" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="5" width="50.77734375" customWidth="1"/>
     <col min="6" max="6" width="4" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.69921875" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -972,14 +1047,14 @@
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -988,14 +1063,14 @@
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>19</v>
+      <c r="E4" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1004,14 +1079,14 @@
       <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>20</v>
+      <c r="E5" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="18">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1020,176 +1095,265 @@
       <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>21</v>
+      <c r="E6" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="22">
+      <c r="B14" s="19">
         <v>12</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>60</v>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
+      <c r="B15" s="13">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="19">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="13">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="19">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="13">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="19">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="13">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="19">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1225,7 +1389,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1233,7 +1397,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1241,7 +1405,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1265,31 +1429,31 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.796875" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="4" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.69921875" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1297,8 +1461,8 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1313,7 +1477,7 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3"/>
@@ -1323,380 +1487,601 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26">
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="27">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F3" s="24"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>55</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F4" s="26"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
-        <f t="shared" ref="A5:A18" si="0">A4+1</f>
+      <c r="A5" s="23">
+        <f t="shared" ref="A5:A34" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="27">
+        <v>30</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>47</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F6" s="26"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>56</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F7" s="24"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>57</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F8" s="26"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="27"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="24"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="F10" s="26"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>55</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F11" s="24"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="30">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F12" s="27"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+      <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>49</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F13" s="24"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="29">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F14" s="26"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+      <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="27"/>
+        <v>29</v>
+      </c>
+      <c r="F15" s="24"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="F16" s="26"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="27"/>
+        <v>29</v>
+      </c>
+      <c r="F17" s="24"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+      <c r="A18" s="28">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
+      <c r="B18" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="28">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="E32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="28">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <f t="shared" ref="A35" si="1">A34+1</f>
+        <v>33</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
